--- a/medicine/Handicap/Lourdes_(film,_2009)/Lourdes_(film,_2009).xlsx
+++ b/medicine/Handicap/Lourdes_(film,_2009)/Lourdes_(film,_2009).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lourdes est un film franco-germano-autrichien écrit et réalisé par Jessica Hausner, sorti le 15 décembre 2009 en Autriche et le 27 juillet 2011 en France.
 Sylvie Testud a remporté en 2010, pour son interprétation dans le film, le prix de l'Actrice européenne de l'année.
@@ -512,7 +524,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Lourdes. Quelques jours dans la vie d'un groupe de pèlerins, d'accompagnants, de malades, de handicapés, encadrés par des membres de l'Œuvres hospitalières françaises de l'ordre de Malte. Au sein du groupe, Christine, paralysée : en fauteuil, elle n'a de mobile que la tête. Et si survenait une guérison miraculeuse ?
 </t>
@@ -543,7 +557,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre : Lourdes
 Réalisation : Jessica Hausner
@@ -585,7 +601,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Sylvie Testud : Christine
 Bruno Todeschini : Kuno, un encadrant de l'Œuvres hospitalières françaises de l'ordre de Malte
@@ -597,7 +615,7 @@
 Heidi Baratta : Mme Spor
 Hubsi Kramar : Mlle Oliveti
 Helga Illich : Mme Oliveti
-Source et légende : Version française (V. F.) sur le site d'AlterEgo (la société de doublage[1])</t>
+Source et légende : Version française (V. F.) sur le site d'AlterEgo (la société de doublage)</t>
         </is>
       </c>
     </row>
@@ -625,7 +643,9 @@
           <t>Autour du film</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>L'Autrichienne Jessica Hausner, qui fut assistante de Michael Haneke, réalise ici son cinquième long-métrage, après notamment Lovely Rita et Hotel, tous deux sélectionnés au Festival de Cannes dans la section Un certain regard.
 Lourdes a été sélectionné à la Mostra de Venise 2009, où il a obtenu une double récompense : le Prix FIPRESCI de la Critique Internationale et le Prix du jury œcuménique de la Berlinale.</t>
